--- a/input_spreadsheets/Tanzania/regions/InputForCode_Singida.xlsx
+++ b/input_spreadsheets/Tanzania/regions/InputForCode_Singida.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/regions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D947FDFD-4C08-BF4B-B1E5-EF55AAF619F3}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{1D5B7A45-E83F-9540-A238-C6928CA7DBC2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" firstSheet="30" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expenditure &amp; budget" sheetId="47" r:id="rId1"/>
@@ -4260,7 +4260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="274">
   <si>
     <t>year</t>
   </si>
@@ -6528,13 +6528,13 @@
     <xf numFmtId="0" fontId="31" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="34" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="739" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="739" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="739" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="740">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
@@ -8902,38 +8902,38 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="153" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" style="153" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="153"/>
+    <col min="1" max="1" width="17.5" style="152" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="152" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="152"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="151" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="151" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="151" t="s">
         <v>272</v>
       </c>
-      <c r="B2" s="155">
+      <c r="B2" s="154">
         <v>451140.74136363639</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="151" t="s">
         <v>273</v>
       </c>
-      <c r="B3" s="154"/>
+      <c r="B3" s="153"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14051,7 +14051,7 @@
       <c r="A2" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="151" t="s">
+      <c r="B2" s="155" t="s">
         <v>72</v>
       </c>
       <c r="C2" t="s">
@@ -14074,7 +14074,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="151"/>
+      <c r="B3" s="155"/>
       <c r="C3" t="s">
         <v>150</v>
       </c>
@@ -14096,7 +14096,7 @@
       <c r="J3" s="37"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="151"/>
+      <c r="B4" s="155"/>
       <c r="C4" t="s">
         <v>160</v>
       </c>
@@ -14118,7 +14118,7 @@
       <c r="J4" s="37"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="151" t="s">
+      <c r="B5" s="155" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
@@ -14141,7 +14141,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="151"/>
+      <c r="B6" s="155"/>
       <c r="C6" t="s">
         <v>150</v>
       </c>
@@ -14162,7 +14162,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="151"/>
+      <c r="B7" s="155"/>
       <c r="C7" t="s">
         <v>160</v>
       </c>
@@ -14183,7 +14183,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="151" t="s">
+      <c r="B8" s="155" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
@@ -14206,7 +14206,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="151"/>
+      <c r="B9" s="155"/>
       <c r="C9" t="s">
         <v>150</v>
       </c>
@@ -14227,7 +14227,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="151"/>
+      <c r="B10" s="155"/>
       <c r="C10" t="s">
         <v>160</v>
       </c>
@@ -14248,7 +14248,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="151" t="s">
+      <c r="B11" s="155" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
@@ -14271,7 +14271,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="151"/>
+      <c r="B12" s="155"/>
       <c r="C12" t="s">
         <v>150</v>
       </c>
@@ -14292,7 +14292,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="151"/>
+      <c r="B13" s="155"/>
       <c r="C13" t="s">
         <v>160</v>
       </c>
@@ -14313,7 +14313,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="151" t="s">
+      <c r="B14" s="155" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
@@ -14336,7 +14336,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="151"/>
+      <c r="B15" s="155"/>
       <c r="C15" t="s">
         <v>150</v>
       </c>
@@ -14357,7 +14357,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="151"/>
+      <c r="B16" s="155"/>
       <c r="C16" t="s">
         <v>160</v>
       </c>
@@ -14411,7 +14411,7 @@
       <c r="A19" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="B19" s="151" t="s">
+      <c r="B19" s="155" t="s">
         <v>72</v>
       </c>
       <c r="C19" t="s">
@@ -14434,7 +14434,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="151"/>
+      <c r="B20" s="155"/>
       <c r="C20" t="s">
         <v>150</v>
       </c>
@@ -14455,7 +14455,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="151"/>
+      <c r="B21" s="155"/>
       <c r="C21" t="s">
         <v>160</v>
       </c>
@@ -14476,7 +14476,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="151" t="s">
+      <c r="B22" s="155" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
@@ -14499,7 +14499,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="151"/>
+      <c r="B23" s="155"/>
       <c r="C23" t="s">
         <v>150</v>
       </c>
@@ -14520,7 +14520,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="151"/>
+      <c r="B24" s="155"/>
       <c r="C24" t="s">
         <v>160</v>
       </c>
@@ -14541,7 +14541,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="151" t="s">
+      <c r="B25" s="155" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
@@ -14564,7 +14564,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="151"/>
+      <c r="B26" s="155"/>
       <c r="C26" t="s">
         <v>150</v>
       </c>
@@ -14585,7 +14585,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="151"/>
+      <c r="B27" s="155"/>
       <c r="C27" t="s">
         <v>160</v>
       </c>
@@ -14606,7 +14606,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="151" t="s">
+      <c r="B28" s="155" t="s">
         <v>8</v>
       </c>
       <c r="C28" t="s">
@@ -14629,7 +14629,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="151"/>
+      <c r="B29" s="155"/>
       <c r="C29" t="s">
         <v>150</v>
       </c>
@@ -14650,7 +14650,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="151"/>
+      <c r="B30" s="155"/>
       <c r="C30" t="s">
         <v>160</v>
       </c>
@@ -14671,7 +14671,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="151" t="s">
+      <c r="B31" s="155" t="s">
         <v>9</v>
       </c>
       <c r="C31" t="s">
@@ -14694,7 +14694,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="151"/>
+      <c r="B32" s="155"/>
       <c r="C32" t="s">
         <v>150</v>
       </c>
@@ -14715,7 +14715,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B33" s="151"/>
+      <c r="B33" s="155"/>
       <c r="C33" t="s">
         <v>160</v>
       </c>
@@ -14762,7 +14762,7 @@
       <c r="A36" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B36" s="151" t="s">
+      <c r="B36" s="155" t="s">
         <v>72</v>
       </c>
       <c r="C36" t="s">
@@ -14785,7 +14785,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B37" s="151"/>
+      <c r="B37" s="155"/>
       <c r="C37" t="s">
         <v>150</v>
       </c>
@@ -14806,7 +14806,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B38" s="151"/>
+      <c r="B38" s="155"/>
       <c r="C38" t="s">
         <v>160</v>
       </c>
@@ -14828,7 +14828,7 @@
       <c r="I38" s="37"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B39" s="151" t="s">
+      <c r="B39" s="155" t="s">
         <v>6</v>
       </c>
       <c r="C39" t="s">
@@ -14851,7 +14851,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B40" s="151"/>
+      <c r="B40" s="155"/>
       <c r="C40" t="s">
         <v>150</v>
       </c>
@@ -14872,7 +14872,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B41" s="151"/>
+      <c r="B41" s="155"/>
       <c r="C41" t="s">
         <v>160</v>
       </c>
@@ -14893,7 +14893,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B42" s="151" t="s">
+      <c r="B42" s="155" t="s">
         <v>7</v>
       </c>
       <c r="C42" t="s">
@@ -14916,7 +14916,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B43" s="151"/>
+      <c r="B43" s="155"/>
       <c r="C43" t="s">
         <v>150</v>
       </c>
@@ -14937,7 +14937,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B44" s="151"/>
+      <c r="B44" s="155"/>
       <c r="C44" t="s">
         <v>160</v>
       </c>
@@ -14958,7 +14958,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B45" s="151" t="s">
+      <c r="B45" s="155" t="s">
         <v>8</v>
       </c>
       <c r="C45" t="s">
@@ -14981,7 +14981,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B46" s="151"/>
+      <c r="B46" s="155"/>
       <c r="C46" t="s">
         <v>150</v>
       </c>
@@ -15002,7 +15002,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B47" s="151"/>
+      <c r="B47" s="155"/>
       <c r="C47" t="s">
         <v>160</v>
       </c>
@@ -15023,7 +15023,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B48" s="151" t="s">
+      <c r="B48" s="155" t="s">
         <v>9</v>
       </c>
       <c r="C48" t="s">
@@ -15046,7 +15046,7 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B49" s="151"/>
+      <c r="B49" s="155"/>
       <c r="C49" t="s">
         <v>150</v>
       </c>
@@ -15067,7 +15067,7 @@
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B50" s="151"/>
+      <c r="B50" s="155"/>
       <c r="C50" t="s">
         <v>160</v>
       </c>
@@ -15112,6 +15112,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -15122,11 +15127,6 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -27885,8 +27885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:B27"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -28134,9 +28134,7 @@
       <c r="A39" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B39" s="90" t="s">
-        <v>161</v>
-      </c>
+      <c r="B39" s="90"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">

--- a/input_spreadsheets/Tanzania/regions/InputForCode_Singida.xlsx
+++ b/input_spreadsheets/Tanzania/regions/InputForCode_Singida.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/regions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{1D5B7A45-E83F-9540-A238-C6928CA7DBC2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{0686BFA2-117C-FD46-AF49-C1B8A2759A95}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" firstSheet="30" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" firstSheet="28" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expenditure &amp; budget" sheetId="47" r:id="rId1"/>
@@ -64,7 +64,7 @@
     <definedName name="PWPop">'[1]Baseline year demographics'!$C$44:$C$47</definedName>
     <definedName name="WRAPop">'[1]Baseline year demographics'!$C$32:$C$35</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -4260,7 +4260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="274">
   <si>
     <t>year</t>
   </si>
@@ -15112,11 +15112,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -15127,6 +15122,11 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -25394,8 +25394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -25497,7 +25497,7 @@
         <v>141</v>
       </c>
       <c r="B7" s="125">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="C7" s="147">
         <v>0.95</v>
@@ -27885,8 +27885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -28057,7 +28057,9 @@
       <c r="A26" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B26" s="90"/>
+      <c r="B26" s="90" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">

--- a/input_spreadsheets/Tanzania/regions/InputForCode_Singida.xlsx
+++ b/input_spreadsheets/Tanzania/regions/InputForCode_Singida.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/regions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{3353DEAB-0B2D-ED4A-AA3A-4427D311C1D6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D1302A28-8559-1D45-A584-0BB74CF45B00}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" firstSheet="28" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" firstSheet="28" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expenditure &amp; budget" sheetId="47" r:id="rId1"/>
@@ -6250,7 +6250,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6483,7 +6483,6 @@
     <xf numFmtId="10" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="31" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -8874,32 +8873,32 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="151" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" style="151" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="151"/>
+    <col min="1" max="1" width="17.5" style="150" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="150" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="150"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="149" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="150" t="s">
+      <c r="B1" s="149" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="149" t="s">
         <v>272</v>
       </c>
-      <c r="B2" s="153">
+      <c r="B2" s="152">
         <v>451140.74136363639</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="150" t="s">
+      <c r="A3" s="149" t="s">
         <v>273</v>
       </c>
-      <c r="B3" s="152"/>
+      <c r="B3" s="151"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8953,17 +8952,17 @@
       <c r="B2" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="148">
+      <c r="C2" s="147">
         <f>1-D2-E2-F2</f>
         <v>0.76741860465116274</v>
       </c>
-      <c r="D2" s="149">
+      <c r="D2" s="148">
         <v>0.13538953488372094</v>
       </c>
-      <c r="E2" s="149">
+      <c r="E2" s="148">
         <v>8.1573255813953499E-2</v>
       </c>
-      <c r="F2" s="149">
+      <c r="F2" s="148">
         <v>1.5618604651162792E-2</v>
       </c>
     </row>
@@ -13848,25 +13847,25 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="154" t="s">
+      <c r="A18" s="153" t="s">
         <v>233</v>
       </c>
-      <c r="B18" s="155" t="s">
+      <c r="B18" s="154" t="s">
         <v>274</v>
       </c>
-      <c r="C18" s="156">
+      <c r="C18" s="155">
         <v>1.5</v>
       </c>
-      <c r="D18" s="156">
+      <c r="D18" s="155">
         <v>1.39</v>
       </c>
-      <c r="E18" s="155">
-        <v>1</v>
-      </c>
-      <c r="F18" s="155">
-        <v>1</v>
-      </c>
-      <c r="G18" s="155">
+      <c r="E18" s="154">
+        <v>1</v>
+      </c>
+      <c r="F18" s="154">
+        <v>1</v>
+      </c>
+      <c r="G18" s="154">
         <v>1</v>
       </c>
     </row>
@@ -13997,7 +13996,7 @@
       <c r="A2" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="158" t="s">
         <v>72</v>
       </c>
       <c r="C2" t="s">
@@ -14020,7 +14019,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="159"/>
+      <c r="B3" s="158"/>
       <c r="C3" t="s">
         <v>150</v>
       </c>
@@ -14042,7 +14041,7 @@
       <c r="J3" s="37"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="159"/>
+      <c r="B4" s="158"/>
       <c r="C4" t="s">
         <v>160</v>
       </c>
@@ -14064,7 +14063,7 @@
       <c r="J4" s="37"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="159" t="s">
+      <c r="B5" s="158" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
@@ -14087,7 +14086,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="159"/>
+      <c r="B6" s="158"/>
       <c r="C6" t="s">
         <v>150</v>
       </c>
@@ -14108,7 +14107,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="159"/>
+      <c r="B7" s="158"/>
       <c r="C7" t="s">
         <v>160</v>
       </c>
@@ -14129,7 +14128,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="159" t="s">
+      <c r="B8" s="158" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
@@ -14152,7 +14151,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="159"/>
+      <c r="B9" s="158"/>
       <c r="C9" t="s">
         <v>150</v>
       </c>
@@ -14173,7 +14172,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="159"/>
+      <c r="B10" s="158"/>
       <c r="C10" t="s">
         <v>160</v>
       </c>
@@ -14194,7 +14193,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="159" t="s">
+      <c r="B11" s="158" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
@@ -14217,7 +14216,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="159"/>
+      <c r="B12" s="158"/>
       <c r="C12" t="s">
         <v>150</v>
       </c>
@@ -14238,7 +14237,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="159"/>
+      <c r="B13" s="158"/>
       <c r="C13" t="s">
         <v>160</v>
       </c>
@@ -14259,7 +14258,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="159" t="s">
+      <c r="B14" s="158" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
@@ -14282,7 +14281,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="159"/>
+      <c r="B15" s="158"/>
       <c r="C15" t="s">
         <v>150</v>
       </c>
@@ -14303,7 +14302,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="159"/>
+      <c r="B16" s="158"/>
       <c r="C16" t="s">
         <v>160</v>
       </c>
@@ -14357,7 +14356,7 @@
       <c r="A19" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="B19" s="159" t="s">
+      <c r="B19" s="158" t="s">
         <v>72</v>
       </c>
       <c r="C19" t="s">
@@ -14380,7 +14379,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="159"/>
+      <c r="B20" s="158"/>
       <c r="C20" t="s">
         <v>150</v>
       </c>
@@ -14401,7 +14400,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="159"/>
+      <c r="B21" s="158"/>
       <c r="C21" t="s">
         <v>160</v>
       </c>
@@ -14422,7 +14421,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="159" t="s">
+      <c r="B22" s="158" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
@@ -14445,7 +14444,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="159"/>
+      <c r="B23" s="158"/>
       <c r="C23" t="s">
         <v>150</v>
       </c>
@@ -14466,7 +14465,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="159"/>
+      <c r="B24" s="158"/>
       <c r="C24" t="s">
         <v>160</v>
       </c>
@@ -14487,7 +14486,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="159" t="s">
+      <c r="B25" s="158" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
@@ -14510,7 +14509,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="159"/>
+      <c r="B26" s="158"/>
       <c r="C26" t="s">
         <v>150</v>
       </c>
@@ -14531,7 +14530,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="159"/>
+      <c r="B27" s="158"/>
       <c r="C27" t="s">
         <v>160</v>
       </c>
@@ -14552,7 +14551,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="159" t="s">
+      <c r="B28" s="158" t="s">
         <v>8</v>
       </c>
       <c r="C28" t="s">
@@ -14575,7 +14574,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="159"/>
+      <c r="B29" s="158"/>
       <c r="C29" t="s">
         <v>150</v>
       </c>
@@ -14596,7 +14595,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="159"/>
+      <c r="B30" s="158"/>
       <c r="C30" t="s">
         <v>160</v>
       </c>
@@ -14617,7 +14616,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="159" t="s">
+      <c r="B31" s="158" t="s">
         <v>9</v>
       </c>
       <c r="C31" t="s">
@@ -14640,7 +14639,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="159"/>
+      <c r="B32" s="158"/>
       <c r="C32" t="s">
         <v>150</v>
       </c>
@@ -14661,7 +14660,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B33" s="159"/>
+      <c r="B33" s="158"/>
       <c r="C33" t="s">
         <v>160</v>
       </c>
@@ -14708,7 +14707,7 @@
       <c r="A36" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B36" s="159" t="s">
+      <c r="B36" s="158" t="s">
         <v>72</v>
       </c>
       <c r="C36" t="s">
@@ -14731,7 +14730,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B37" s="159"/>
+      <c r="B37" s="158"/>
       <c r="C37" t="s">
         <v>150</v>
       </c>
@@ -14752,7 +14751,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B38" s="159"/>
+      <c r="B38" s="158"/>
       <c r="C38" t="s">
         <v>160</v>
       </c>
@@ -14774,7 +14773,7 @@
       <c r="I38" s="37"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B39" s="159" t="s">
+      <c r="B39" s="158" t="s">
         <v>6</v>
       </c>
       <c r="C39" t="s">
@@ -14797,7 +14796,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B40" s="159"/>
+      <c r="B40" s="158"/>
       <c r="C40" t="s">
         <v>150</v>
       </c>
@@ -14818,7 +14817,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B41" s="159"/>
+      <c r="B41" s="158"/>
       <c r="C41" t="s">
         <v>160</v>
       </c>
@@ -14839,7 +14838,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B42" s="159" t="s">
+      <c r="B42" s="158" t="s">
         <v>7</v>
       </c>
       <c r="C42" t="s">
@@ -14862,7 +14861,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B43" s="159"/>
+      <c r="B43" s="158"/>
       <c r="C43" t="s">
         <v>150</v>
       </c>
@@ -14883,7 +14882,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B44" s="159"/>
+      <c r="B44" s="158"/>
       <c r="C44" t="s">
         <v>160</v>
       </c>
@@ -14904,7 +14903,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B45" s="159" t="s">
+      <c r="B45" s="158" t="s">
         <v>8</v>
       </c>
       <c r="C45" t="s">
@@ -14927,7 +14926,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B46" s="159"/>
+      <c r="B46" s="158"/>
       <c r="C46" t="s">
         <v>150</v>
       </c>
@@ -14948,7 +14947,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B47" s="159"/>
+      <c r="B47" s="158"/>
       <c r="C47" t="s">
         <v>160</v>
       </c>
@@ -14969,7 +14968,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B48" s="159" t="s">
+      <c r="B48" s="158" t="s">
         <v>9</v>
       </c>
       <c r="C48" t="s">
@@ -14992,7 +14991,7 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B49" s="159"/>
+      <c r="B49" s="158"/>
       <c r="C49" t="s">
         <v>150</v>
       </c>
@@ -15013,7 +15012,7 @@
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B50" s="159"/>
+      <c r="B50" s="158"/>
       <c r="C50" t="s">
         <v>160</v>
       </c>
@@ -15058,6 +15057,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -15068,11 +15072,6 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -18975,50 +18974,50 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A53" s="155" t="s">
+      <c r="A53" s="154" t="s">
         <v>274</v>
       </c>
-      <c r="B53" s="155" t="s">
+      <c r="B53" s="154" t="s">
         <v>21</v>
       </c>
-      <c r="C53" s="155" t="s">
+      <c r="C53" s="154" t="s">
         <v>98</v>
       </c>
-      <c r="D53" s="157">
+      <c r="D53" s="156">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E53" s="157">
+      <c r="E53" s="156">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F53" s="155">
-        <v>0</v>
-      </c>
-      <c r="G53" s="155">
-        <v>0</v>
-      </c>
-      <c r="H53" s="155">
+      <c r="F53" s="154">
+        <v>0</v>
+      </c>
+      <c r="G53" s="154">
+        <v>0</v>
+      </c>
+      <c r="H53" s="154">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A54" s="155"/>
-      <c r="B54" s="155"/>
-      <c r="C54" s="155" t="s">
+      <c r="A54" s="154"/>
+      <c r="B54" s="154"/>
+      <c r="C54" s="154" t="s">
         <v>62</v>
       </c>
-      <c r="D54" s="157">
+      <c r="D54" s="156">
         <v>0.51</v>
       </c>
-      <c r="E54" s="157">
+      <c r="E54" s="156">
         <v>0.51</v>
       </c>
-      <c r="F54" s="155">
-        <v>0</v>
-      </c>
-      <c r="G54" s="155">
-        <v>0</v>
-      </c>
-      <c r="H54" s="155">
+      <c r="F54" s="154">
+        <v>0</v>
+      </c>
+      <c r="G54" s="154">
+        <v>0</v>
+      </c>
+      <c r="H54" s="154">
         <v>0</v>
       </c>
     </row>
@@ -20085,8 +20084,8 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="155"/>
-      <c r="B14" s="155" t="s">
+      <c r="A14" s="154"/>
+      <c r="B14" s="154" t="s">
         <v>274</v>
       </c>
       <c r="C14" s="108">
@@ -22513,8 +22512,8 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="155"/>
-      <c r="B14" s="155" t="s">
+      <c r="A14" s="154"/>
+      <c r="B14" s="154" t="s">
         <v>274</v>
       </c>
       <c r="C14" s="108">
@@ -24628,7 +24627,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" s="155" t="s">
+      <c r="A41" s="154" t="s">
         <v>274</v>
       </c>
     </row>
@@ -25175,19 +25174,19 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A52" s="155" t="s">
+      <c r="A52" s="154" t="s">
         <v>274</v>
       </c>
-      <c r="B52" s="155"/>
-      <c r="C52" s="155"/>
-      <c r="D52" s="155"/>
-      <c r="E52" s="155"/>
-      <c r="F52" s="155"/>
-      <c r="G52" s="155"/>
-      <c r="H52" s="155" t="s">
+      <c r="B52" s="154"/>
+      <c r="C52" s="154"/>
+      <c r="D52" s="154"/>
+      <c r="E52" s="154"/>
+      <c r="F52" s="154"/>
+      <c r="G52" s="154"/>
+      <c r="H52" s="154" t="s">
         <v>161</v>
       </c>
-      <c r="I52" s="155" t="s">
+      <c r="I52" s="154" t="s">
         <v>161</v>
       </c>
     </row>
@@ -25500,8 +25499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:D52"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -25575,10 +25574,10 @@
       <c r="B5" s="124">
         <v>0.11</v>
       </c>
-      <c r="C5" s="147">
+      <c r="C5" s="146">
         <v>0.95</v>
       </c>
-      <c r="D5" s="147">
+      <c r="D5" s="146">
         <v>60</v>
       </c>
     </row>
@@ -25604,10 +25603,10 @@
       <c r="B7" s="124">
         <v>0</v>
       </c>
-      <c r="C7" s="146">
+      <c r="C7" s="145">
         <v>0.95</v>
       </c>
-      <c r="D7" s="146">
+      <c r="D7" s="145">
         <f>0.25/((9862402+13370081 )/57310019)</f>
         <v>0.61670139821042802</v>
       </c>
@@ -25843,10 +25842,10 @@
       <c r="B24" s="120">
         <v>0.38200000000000001</v>
       </c>
-      <c r="C24" s="146">
+      <c r="C24" s="145">
         <v>0.95</v>
       </c>
-      <c r="D24" s="146">
+      <c r="D24" s="145">
         <v>2.06</v>
       </c>
     </row>
@@ -25871,10 +25870,10 @@
       <c r="B26" s="124">
         <v>0.90500000000000003</v>
       </c>
-      <c r="C26" s="147">
+      <c r="C26" s="146">
         <v>0.95</v>
       </c>
-      <c r="D26" s="147">
+      <c r="D26" s="146">
         <v>3.78</v>
       </c>
     </row>
@@ -26039,10 +26038,10 @@
       <c r="B38" s="120">
         <v>0.1</v>
       </c>
-      <c r="C38" s="146">
+      <c r="C38" s="145">
         <v>0.95</v>
       </c>
-      <c r="D38" s="146">
+      <c r="D38" s="145">
         <v>4.6500000000000004</v>
       </c>
     </row>
@@ -26053,7 +26052,7 @@
       <c r="B39" s="120">
         <v>0</v>
       </c>
-      <c r="C39" s="146">
+      <c r="C39" s="145">
         <v>0.95</v>
       </c>
       <c r="D39" s="140">
@@ -26068,7 +26067,7 @@
       <c r="B40" s="120">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="C40" s="146">
+      <c r="C40" s="145">
         <v>0.95</v>
       </c>
       <c r="D40" s="140">
@@ -26086,7 +26085,7 @@
       <c r="C41" s="120">
         <v>1</v>
       </c>
-      <c r="D41" s="146">
+      <c r="D41" s="145">
         <v>0.41</v>
       </c>
     </row>
@@ -26167,7 +26166,7 @@
       <c r="B47" s="126">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="C47" s="146">
+      <c r="C47" s="145">
         <v>0.95</v>
       </c>
       <c r="D47" s="140">
@@ -26192,10 +26191,10 @@
       <c r="A49" s="119" t="s">
         <v>157</v>
       </c>
-      <c r="B49" s="144">
-        <v>0</v>
-      </c>
-      <c r="C49" s="145">
+      <c r="B49" s="154">
+        <v>0.33439999999999998</v>
+      </c>
+      <c r="C49" s="144">
         <v>0.95</v>
       </c>
       <c r="D49" s="143" t="s">
@@ -26231,16 +26230,16 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="155" t="s">
+      <c r="A52" s="154" t="s">
         <v>274</v>
       </c>
-      <c r="B52" s="157">
-        <v>0</v>
-      </c>
-      <c r="C52" s="158">
+      <c r="B52" s="156">
+        <v>0</v>
+      </c>
+      <c r="C52" s="157">
         <v>0.95</v>
       </c>
-      <c r="D52" s="158">
+      <c r="D52" s="157">
         <v>8.84</v>
       </c>
     </row>
@@ -26858,8 +26857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:P103"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102:C103"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -27878,7 +27877,7 @@
       </c>
       <c r="C96" s="23"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" t="str">
         <f>A96</f>
         <v>IYCF 1</v>
@@ -27886,9 +27885,14 @@
       <c r="B97" s="89" t="s">
         <v>255</v>
       </c>
-      <c r="C97" s="23"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C97" s="23">
+        <v>0</v>
+      </c>
+      <c r="D97" s="154">
+        <v>0.33439999999999998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" t="str">
         <f>'Programs to include'!A50</f>
         <v>IYCF 2</v>
@@ -27898,7 +27902,7 @@
       </c>
       <c r="C98" s="23"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" t="str">
         <f>A98</f>
         <v>IYCF 2</v>
@@ -27908,7 +27912,7 @@
       </c>
       <c r="C99" s="23"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" t="str">
         <f>'Programs to include'!A51</f>
         <v>IYCF 3</v>
@@ -27918,7 +27922,7 @@
       </c>
       <c r="C100" s="23"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" t="str">
         <f>A100</f>
         <v>IYCF 3</v>
@@ -27928,23 +27932,23 @@
       </c>
       <c r="C101" s="23"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A102" s="155" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A102" s="154" t="s">
         <v>274</v>
       </c>
-      <c r="B102" s="155" t="s">
+      <c r="B102" s="154" t="s">
         <v>254</v>
       </c>
-      <c r="C102" s="158"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A103" s="155" t="s">
+      <c r="C102" s="157"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A103" s="154" t="s">
         <v>274</v>
       </c>
-      <c r="B103" s="155" t="s">
+      <c r="B103" s="154" t="s">
         <v>255</v>
       </c>
-      <c r="C103" s="158"/>
+      <c r="C103" s="157"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28354,10 +28358,10 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" s="155" t="s">
+      <c r="A52" s="154" t="s">
         <v>274</v>
       </c>
-      <c r="B52" s="155" t="s">
+      <c r="B52" s="154" t="s">
         <v>161</v>
       </c>
     </row>

--- a/input_spreadsheets/Tanzania/regions/InputForCode_Singida.xlsx
+++ b/input_spreadsheets/Tanzania/regions/InputForCode_Singida.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/regions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D1302A28-8559-1D45-A584-0BB74CF45B00}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B2573AE1-6F98-4A4B-9E94-64B1370D06E4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" firstSheet="28" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" firstSheet="14" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expenditure &amp; budget" sheetId="47" r:id="rId1"/>
@@ -15057,11 +15057,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -15072,6 +15067,11 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -15307,8 +15307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -15422,8 +15422,8 @@
         <f>1.5*0.61</f>
         <v>0.91500000000000004</v>
       </c>
-      <c r="D8">
-        <v>10.49</v>
+      <c r="D8" s="89">
+        <v>3.78</v>
       </c>
       <c r="E8">
         <v>0.05</v>
@@ -15437,8 +15437,8 @@
         <f t="shared" ref="C9:C12" si="0">1.5*0.61</f>
         <v>0.91500000000000004</v>
       </c>
-      <c r="D9">
-        <v>10.49</v>
+      <c r="D9" s="89">
+        <v>2.6225000000000001</v>
       </c>
       <c r="E9">
         <v>0.05</v>
@@ -15452,8 +15452,8 @@
         <f t="shared" si="0"/>
         <v>0.91500000000000004</v>
       </c>
-      <c r="D10">
-        <v>10.49</v>
+      <c r="D10" s="89">
+        <v>2.6225000000000001</v>
       </c>
       <c r="E10">
         <v>0.05</v>
@@ -15467,8 +15467,8 @@
         <f t="shared" si="0"/>
         <v>0.91500000000000004</v>
       </c>
-      <c r="D11">
-        <v>10.49</v>
+      <c r="D11" s="89">
+        <v>2.6225000000000001</v>
       </c>
       <c r="E11">
         <v>0.05</v>
@@ -15482,8 +15482,8 @@
         <f t="shared" si="0"/>
         <v>0.91500000000000004</v>
       </c>
-      <c r="D12">
-        <v>10.49</v>
+      <c r="D12" s="89">
+        <v>2.6225000000000001</v>
       </c>
       <c r="E12">
         <v>0.05</v>
@@ -26857,7 +26857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:P103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+    <sheetView topLeftCell="A81" workbookViewId="0">
       <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
